--- a/files/Order Tracking.xlsx
+++ b/files/Order Tracking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="69">
   <si>
     <t>Order #</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Could You Be Loved</t>
   </si>
   <si>
-    <t>Ride WIt Me</t>
-  </si>
-  <si>
     <t>Midtown Farmer's Market</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
     <t>Lovers &amp; Friends</t>
   </si>
   <si>
+    <t>Ride WIt Me</t>
+  </si>
+  <si>
     <t>SUM of Charged</t>
   </si>
   <si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>COUNTA of Menu Item</t>
-  </si>
-  <si>
-    <t>COUNTA of Cup</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -223,16 +220,10 @@
     <t>Mango</t>
   </si>
   <si>
-    <t>Midtown Farmers Market</t>
-  </si>
-  <si>
     <t>Coconut</t>
   </si>
   <si>
     <t>Cranberry</t>
-  </si>
-  <si>
-    <t>Vanill</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1124,7 @@
       <sharedItems>
         <s v="Soda Way"/>
         <s v="Sactowns Finest Market"/>
-        <s v="Midtown Farmers Market"/>
+        <s v="Midtown Farmer's Market"/>
         <s v="World's Worst Second Saturday"/>
       </sharedItems>
     </cacheField>
@@ -1194,7 +1185,6 @@
         <s v="Coconut"/>
         <s v="Prickly Pear"/>
         <s v="Lavender"/>
-        <s v="Vanill"/>
         <s v="Peach"/>
         <s v="Mango"/>
       </sharedItems>
@@ -1879,245 +1869,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 5 2" cacheId="1" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
-  <location ref="D3:E7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields>
-    <pivotField name="Order #" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Date" axis="axisRow" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Location" axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Cup" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Zero Sugar" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Soda" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Flavor 1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Flavor 2" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Flavor 3" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Flavor 4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Charged" dataField="1" compact="0" numFmtId="165" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields>
-    <field x="1"/>
-  </rowFields>
-  <pageFields>
-    <pageField fld="2"/>
-  </pageFields>
-  <dataFields>
-    <dataField name="SUM of Charged" fld="10" baseField="0"/>
-  </dataFields>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 5 3" cacheId="0" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 5 2" cacheId="0" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A9:B13" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields>
     <pivotField name="Order #" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -2751,9 +2503,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 5 4" cacheId="1" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
-  <location ref="D9:E13" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 5 3" cacheId="1" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
+  <location ref="D9:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields>
     <pivotField name="Order #" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
@@ -2861,7 +2613,7 @@
       <items>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
@@ -2929,7 +2681,6 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
-        <item x="15"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2989,8 +2740,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 5 5" cacheId="0" dataCaption="" compact="0" compactData="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 5 4" cacheId="0" dataCaption="" compact="0" compactData="0">
   <location ref="A17:B22" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="Order #" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -10321,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G155" s="7">
         <v>6.5</v>
@@ -10480,7 +10231,7 @@
         <v>45528.0</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>10</v>
@@ -10522,7 +10273,7 @@
         <v>45528.0</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>10</v>
@@ -10564,7 +10315,7 @@
         <v>45528.0</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>15</v>
@@ -10606,7 +10357,7 @@
         <v>45528.0</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>15</v>
@@ -10648,7 +10399,7 @@
         <v>45528.0</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>10</v>
@@ -10690,7 +10441,7 @@
         <v>45528.0</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>10</v>
@@ -10732,7 +10483,7 @@
         <v>45528.0</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>10</v>
@@ -10774,7 +10525,7 @@
         <v>45528.0</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>10</v>
@@ -10816,7 +10567,7 @@
         <v>45528.0</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>10</v>
@@ -10858,7 +10609,7 @@
         <v>45528.0</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>10</v>
@@ -10900,7 +10651,7 @@
         <v>45528.0</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>10</v>
@@ -10942,7 +10693,7 @@
         <v>45528.0</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>10</v>
@@ -10984,7 +10735,7 @@
         <v>45528.0</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>10</v>
@@ -11026,7 +10777,7 @@
         <v>45528.0</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>10</v>
@@ -11068,7 +10819,7 @@
         <v>45528.0</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>10</v>
@@ -11110,7 +10861,7 @@
         <v>45528.0</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>15</v>
@@ -11152,7 +10903,7 @@
         <v>45528.0</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>10</v>
@@ -11194,7 +10945,7 @@
         <v>45528.0</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>10</v>
@@ -11236,7 +10987,7 @@
         <v>45528.0</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>10</v>
@@ -11278,7 +11029,7 @@
         <v>45528.0</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>10</v>
@@ -11320,7 +11071,7 @@
         <v>45528.0</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>10</v>
@@ -11362,7 +11113,7 @@
         <v>45528.0</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>10</v>
@@ -11404,7 +11155,7 @@
         <v>45528.0</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>10</v>
@@ -11446,7 +11197,7 @@
         <v>45528.0</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>10</v>
@@ -11488,7 +11239,7 @@
         <v>45528.0</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>10</v>
@@ -11530,7 +11281,7 @@
         <v>45528.0</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>15</v>
@@ -11572,7 +11323,7 @@
         <v>45528.0</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>15</v>
@@ -11614,7 +11365,7 @@
         <v>45528.0</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>10</v>
@@ -11656,7 +11407,7 @@
         <v>45528.0</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>10</v>
@@ -11698,7 +11449,7 @@
         <v>45528.0</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>10</v>
@@ -11740,7 +11491,7 @@
         <v>45528.0</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>10</v>
@@ -11782,7 +11533,7 @@
         <v>45528.0</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>10</v>
@@ -11824,7 +11575,7 @@
         <v>45528.0</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>10</v>
@@ -11866,7 +11617,7 @@
         <v>45528.0</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>15</v>
@@ -11908,7 +11659,7 @@
         <v>45528.0</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>10</v>
@@ -11950,7 +11701,7 @@
         <v>45528.0</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>15</v>
@@ -11992,7 +11743,7 @@
         <v>45528.0</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>10</v>
@@ -12034,7 +11785,7 @@
         <v>45528.0</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>10</v>
@@ -12076,7 +11827,7 @@
         <v>45528.0</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>10</v>
@@ -12118,7 +11869,7 @@
         <v>45528.0</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>10</v>
@@ -12160,7 +11911,7 @@
         <v>45528.0</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>10</v>
@@ -12202,7 +11953,7 @@
         <v>45528.0</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>15</v>
@@ -12244,7 +11995,7 @@
         <v>45528.0</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>10</v>
@@ -12286,7 +12037,7 @@
         <v>45528.0</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>10</v>
@@ -12328,7 +12079,7 @@
         <v>45528.0</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>10</v>
@@ -12370,7 +12121,7 @@
         <v>45528.0</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>10</v>
@@ -12412,7 +12163,7 @@
         <v>45528.0</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>15</v>
@@ -12454,7 +12205,7 @@
         <v>45528.0</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>15</v>
@@ -12496,7 +12247,7 @@
         <v>45528.0</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>10</v>
@@ -12538,7 +12289,7 @@
         <v>45528.0</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>10</v>
@@ -12580,7 +12331,7 @@
         <v>45528.0</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>10</v>
@@ -12622,7 +12373,7 @@
         <v>45528.0</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>10</v>
@@ -12664,7 +12415,7 @@
         <v>45528.0</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>10</v>
@@ -12706,7 +12457,7 @@
         <v>45528.0</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>10</v>
@@ -12748,7 +12499,7 @@
         <v>45528.0</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>10</v>
@@ -12790,7 +12541,7 @@
         <v>45528.0</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>10</v>
@@ -12832,7 +12583,7 @@
         <v>45528.0</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>10</v>
@@ -12874,7 +12625,7 @@
         <v>45528.0</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>10</v>
@@ -12916,7 +12667,7 @@
         <v>45528.0</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>15</v>
@@ -12958,7 +12709,7 @@
         <v>45528.0</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>10</v>
@@ -13000,7 +12751,7 @@
         <v>45528.0</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>10</v>
@@ -13042,7 +12793,7 @@
         <v>45528.0</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>15</v>
@@ -13084,7 +12835,7 @@
         <v>45528.0</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>10</v>
@@ -13126,7 +12877,7 @@
         <v>45528.0</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>15</v>
@@ -13168,7 +12919,7 @@
         <v>45528.0</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>10</v>
@@ -13210,7 +12961,7 @@
         <v>45528.0</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>10</v>
@@ -13252,7 +13003,7 @@
         <v>45528.0</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>10</v>
@@ -13294,7 +13045,7 @@
         <v>45528.0</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>10</v>
@@ -13336,7 +13087,7 @@
         <v>45528.0</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>10</v>
@@ -13378,7 +13129,7 @@
         <v>45528.0</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>10</v>
@@ -13420,7 +13171,7 @@
         <v>45528.0</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>15</v>
@@ -13462,7 +13213,7 @@
         <v>45528.0</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>15</v>
@@ -13504,7 +13255,7 @@
         <v>45528.0</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>10</v>
@@ -13546,7 +13297,7 @@
         <v>45528.0</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>10</v>
@@ -13588,7 +13339,7 @@
         <v>45528.0</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>10</v>
@@ -13630,7 +13381,7 @@
         <v>45528.0</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>15</v>
@@ -13924,7 +13675,7 @@
         <v>45542.0</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>15</v>
@@ -13966,7 +13717,7 @@
         <v>45542.0</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>10</v>
@@ -14008,7 +13759,7 @@
         <v>45542.0</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>10</v>
@@ -14050,7 +13801,7 @@
         <v>45542.0</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>10</v>
@@ -14065,7 +13816,7 @@
         <v>4.0</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I244" s="8"/>
       <c r="J244" s="8"/>
@@ -14094,7 +13845,7 @@
         <v>45542.0</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>10</v>
@@ -14109,7 +13860,7 @@
         <v>4.0</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I245" s="8"/>
       <c r="J245" s="8"/>
@@ -14138,7 +13889,7 @@
         <v>45542.0</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>15</v>
@@ -14180,7 +13931,7 @@
         <v>45542.0</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>10</v>
@@ -14222,7 +13973,7 @@
         <v>45542.0</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>15</v>
@@ -14264,7 +14015,7 @@
         <v>45542.0</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>10</v>
@@ -14306,7 +14057,7 @@
         <v>45542.0</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>10</v>
@@ -14348,7 +14099,7 @@
         <v>45542.0</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>15</v>
@@ -14390,7 +14141,7 @@
         <v>45542.0</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>15</v>
@@ -14432,7 +14183,7 @@
         <v>45542.0</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>10</v>
@@ -14474,7 +14225,7 @@
         <v>45542.0</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>10</v>
@@ -14516,7 +14267,7 @@
         <v>45542.0</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>10</v>
@@ -14558,7 +14309,7 @@
         <v>45542.0</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>15</v>
@@ -14600,7 +14351,7 @@
         <v>45542.0</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>15</v>
@@ -14642,7 +14393,7 @@
         <v>45542.0</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>10</v>
@@ -14684,7 +14435,7 @@
         <v>45542.0</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>10</v>
@@ -14726,7 +14477,7 @@
         <v>45542.0</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>10</v>
@@ -14768,7 +14519,7 @@
         <v>45542.0</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>10</v>
@@ -14810,7 +14561,7 @@
         <v>45542.0</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>10</v>
@@ -14852,7 +14603,7 @@
         <v>45542.0</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>10</v>
@@ -14894,7 +14645,7 @@
         <v>45542.0</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>15</v>
@@ -14936,7 +14687,7 @@
         <v>45542.0</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>15</v>
@@ -14978,7 +14729,7 @@
         <v>45542.0</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>10</v>
@@ -15020,7 +14771,7 @@
         <v>45542.0</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>10</v>
@@ -15062,7 +14813,7 @@
         <v>45542.0</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>15</v>
@@ -15104,7 +14855,7 @@
         <v>45542.0</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>15</v>
@@ -15146,7 +14897,7 @@
         <v>45542.0</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>10</v>
@@ -15188,7 +14939,7 @@
         <v>45542.0</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>10</v>
@@ -15230,7 +14981,7 @@
         <v>45542.0</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>15</v>
@@ -15272,7 +15023,7 @@
         <v>45542.0</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D273" s="5" t="s">
         <v>10</v>
@@ -15314,7 +15065,7 @@
         <v>45542.0</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>10</v>
@@ -15356,7 +15107,7 @@
         <v>45542.0</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>10</v>
@@ -15398,7 +15149,7 @@
         <v>45542.0</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>15</v>
@@ -15440,7 +15191,7 @@
         <v>45542.0</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>10</v>
@@ -15482,7 +15233,7 @@
         <v>45542.0</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>10</v>
@@ -15524,7 +15275,7 @@
         <v>45542.0</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>10</v>
@@ -15566,7 +15317,7 @@
         <v>45542.0</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>10</v>
@@ -15608,7 +15359,7 @@
         <v>45542.0</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D281" s="5" t="s">
         <v>15</v>
@@ -15650,7 +15401,7 @@
         <v>45542.0</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>10</v>
@@ -15692,7 +15443,7 @@
         <v>45542.0</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>10</v>
@@ -15734,7 +15485,7 @@
         <v>45542.0</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>10</v>
@@ -15776,7 +15527,7 @@
         <v>45542.0</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>10</v>
@@ -15818,7 +15569,7 @@
         <v>45542.0</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>10</v>
@@ -15860,7 +15611,7 @@
         <v>45542.0</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>15</v>
@@ -15902,7 +15653,7 @@
         <v>45542.0</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>10</v>
@@ -15944,7 +15695,7 @@
         <v>45542.0</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D289" s="5" t="s">
         <v>10</v>
@@ -15986,7 +15737,7 @@
         <v>45542.0</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>10</v>
@@ -16028,7 +15779,7 @@
         <v>45542.0</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>10</v>
@@ -16070,7 +15821,7 @@
         <v>45542.0</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>10</v>
@@ -16112,7 +15863,7 @@
         <v>45542.0</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>10</v>
@@ -16154,7 +15905,7 @@
         <v>45542.0</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D294" s="5" t="s">
         <v>10</v>
@@ -16196,7 +15947,7 @@
         <v>45542.0</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D295" s="5" t="s">
         <v>10</v>
@@ -16238,7 +15989,7 @@
         <v>45542.0</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>15</v>
@@ -16280,7 +16031,7 @@
         <v>45542.0</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>15</v>
@@ -16322,7 +16073,7 @@
         <v>45542.0</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>15</v>
@@ -16364,7 +16115,7 @@
         <v>45542.0</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>15</v>
@@ -16406,7 +16157,7 @@
         <v>45542.0</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>15</v>
@@ -16448,7 +16199,7 @@
         <v>45542.0</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>10</v>
@@ -16490,7 +16241,7 @@
         <v>45542.0</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>10</v>
@@ -16532,7 +16283,7 @@
         <v>45542.0</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>10</v>
@@ -16574,7 +16325,7 @@
         <v>45542.0</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>10</v>
@@ -16616,7 +16367,7 @@
         <v>45542.0</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>10</v>
@@ -16658,7 +16409,7 @@
         <v>45542.0</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>15</v>
@@ -16700,7 +16451,7 @@
         <v>45542.0</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>10</v>
@@ -16742,7 +16493,7 @@
         <v>45542.0</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>15</v>
@@ -16784,7 +16535,7 @@
         <v>45542.0</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>15</v>
@@ -16826,7 +16577,7 @@
         <v>45542.0</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D310" s="5" t="s">
         <v>15</v>
@@ -16868,7 +16619,7 @@
         <v>45542.0</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D311" s="5" t="s">
         <v>15</v>
@@ -16910,7 +16661,7 @@
         <v>45542.0</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D312" s="5" t="s">
         <v>10</v>
@@ -16952,7 +16703,7 @@
         <v>45542.0</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D313" s="5" t="s">
         <v>10</v>
@@ -16994,7 +16745,7 @@
         <v>45542.0</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D314" s="5" t="s">
         <v>10</v>
@@ -17036,7 +16787,7 @@
         <v>45542.0</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>10</v>
@@ -17078,7 +16829,7 @@
         <v>45542.0</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D316" s="5" t="s">
         <v>10</v>
@@ -17120,7 +16871,7 @@
         <v>45542.0</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D317" s="5" t="s">
         <v>10</v>
@@ -17162,7 +16913,7 @@
         <v>45542.0</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>15</v>
@@ -17204,7 +16955,7 @@
         <v>45542.0</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>10</v>
@@ -17246,7 +16997,7 @@
         <v>45542.0</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>15</v>
@@ -17288,7 +17039,7 @@
         <v>45542.0</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D321" s="5" t="s">
         <v>15</v>
@@ -17330,7 +17081,7 @@
         <v>45542.0</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>10</v>
@@ -17372,7 +17123,7 @@
         <v>45542.0</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D323" s="5" t="s">
         <v>10</v>
@@ -17414,7 +17165,7 @@
         <v>45549.0</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D324" s="5" t="s">
         <v>10</v>
@@ -17456,7 +17207,7 @@
         <v>45549.0</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>10</v>
@@ -17465,7 +17216,7 @@
         <v>0</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G325" s="7">
         <v>4.75</v>
@@ -17498,7 +17249,7 @@
         <v>45549.0</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D326" s="5" t="s">
         <v>10</v>
@@ -17540,7 +17291,7 @@
         <v>45549.0</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D327" s="5" t="s">
         <v>10</v>
@@ -17582,7 +17333,7 @@
         <v>45549.0</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D328" s="5" t="s">
         <v>10</v>
@@ -17624,7 +17375,7 @@
         <v>45549.0</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>10</v>
@@ -17666,7 +17417,7 @@
         <v>45549.0</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D330" s="5" t="s">
         <v>10</v>
@@ -17708,7 +17459,7 @@
         <v>45549.0</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D331" s="5" t="s">
         <v>10</v>
@@ -17750,7 +17501,7 @@
         <v>45549.0</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D332" s="5" t="s">
         <v>15</v>
@@ -17792,7 +17543,7 @@
         <v>45549.0</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D333" s="5" t="s">
         <v>10</v>
@@ -17834,7 +17585,7 @@
         <v>45549.0</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D334" s="5" t="s">
         <v>10</v>
@@ -17876,7 +17627,7 @@
         <v>45549.0</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D335" s="5" t="s">
         <v>10</v>
@@ -17918,7 +17669,7 @@
         <v>45549.0</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>15</v>
@@ -17960,7 +17711,7 @@
         <v>45549.0</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>10</v>
@@ -18002,7 +17753,7 @@
         <v>45549.0</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D338" s="5" t="s">
         <v>10</v>
@@ -18044,7 +17795,7 @@
         <v>45549.0</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D339" s="5" t="s">
         <v>10</v>
@@ -18086,7 +17837,7 @@
         <v>45549.0</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>10</v>
@@ -18128,7 +17879,7 @@
         <v>45549.0</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>10</v>
@@ -18170,7 +17921,7 @@
         <v>45549.0</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>10</v>
@@ -18212,7 +17963,7 @@
         <v>45549.0</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>10</v>
@@ -18254,7 +18005,7 @@
         <v>45549.0</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>10</v>
@@ -18296,7 +18047,7 @@
         <v>45549.0</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>10</v>
@@ -18338,7 +18089,7 @@
         <v>45549.0</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>10</v>
@@ -18380,7 +18131,7 @@
         <v>45549.0</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D347" s="5" t="s">
         <v>10</v>
@@ -18422,7 +18173,7 @@
         <v>45549.0</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>15</v>
@@ -18464,7 +18215,7 @@
         <v>45549.0</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>10</v>
@@ -18506,7 +18257,7 @@
         <v>45549.0</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>15</v>
@@ -18548,7 +18299,7 @@
         <v>45549.0</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>10</v>
@@ -18590,7 +18341,7 @@
         <v>45549.0</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>10</v>
@@ -18632,7 +18383,7 @@
         <v>45549.0</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D353" s="5" t="s">
         <v>15</v>
@@ -18674,7 +18425,7 @@
         <v>45549.0</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D354" s="5" t="s">
         <v>10</v>
@@ -18716,7 +18467,7 @@
         <v>45549.0</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D355" s="5" t="s">
         <v>10</v>
@@ -18758,7 +18509,7 @@
         <v>45549.0</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D356" s="5" t="s">
         <v>10</v>
@@ -18800,7 +18551,7 @@
         <v>45549.0</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>15</v>
@@ -18842,7 +18593,7 @@
         <v>45549.0</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>10</v>
@@ -18884,7 +18635,7 @@
         <v>45549.0</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>15</v>
@@ -18926,7 +18677,7 @@
         <v>45549.0</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D360" s="5" t="s">
         <v>10</v>
@@ -18968,7 +18719,7 @@
         <v>45549.0</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D361" s="5" t="s">
         <v>10</v>
@@ -19010,7 +18761,7 @@
         <v>45549.0</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>10</v>
@@ -19052,7 +18803,7 @@
         <v>45549.0</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D363" s="5" t="s">
         <v>15</v>
@@ -19094,7 +18845,7 @@
         <v>45549.0</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D364" s="5" t="s">
         <v>10</v>
@@ -19136,7 +18887,7 @@
         <v>45549.0</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D365" s="5" t="s">
         <v>10</v>
@@ -19178,7 +18929,7 @@
         <v>45549.0</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>10</v>
@@ -19220,7 +18971,7 @@
         <v>45549.0</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>10</v>
@@ -19262,7 +19013,7 @@
         <v>45549.0</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D368" s="5" t="s">
         <v>10</v>
@@ -19304,7 +19055,7 @@
         <v>45549.0</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>10</v>
@@ -19346,7 +19097,7 @@
         <v>45549.0</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D370" s="5" t="s">
         <v>10</v>
@@ -19388,7 +19139,7 @@
         <v>45549.0</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D371" s="5" t="s">
         <v>10</v>
@@ -19430,7 +19181,7 @@
         <v>45549.0</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>15</v>
@@ -19472,7 +19223,7 @@
         <v>45549.0</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>10</v>
@@ -19514,7 +19265,7 @@
         <v>45549.0</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>10</v>
@@ -19556,7 +19307,7 @@
         <v>45549.0</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>10</v>
@@ -19598,7 +19349,7 @@
         <v>45549.0</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>10</v>
@@ -19640,7 +19391,7 @@
         <v>45549.0</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>15</v>
@@ -19682,7 +19433,7 @@
         <v>45549.0</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>10</v>
@@ -19724,7 +19475,7 @@
         <v>45549.0</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>10</v>
@@ -19766,7 +19517,7 @@
         <v>45549.0</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D380" s="5" t="s">
         <v>10</v>
@@ -19808,7 +19559,7 @@
         <v>45549.0</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D381" s="5" t="s">
         <v>10</v>
@@ -19850,7 +19601,7 @@
         <v>45549.0</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>10</v>
@@ -19892,7 +19643,7 @@
         <v>45549.0</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>10</v>
@@ -19934,7 +19685,7 @@
         <v>45549.0</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D384" s="5" t="s">
         <v>10</v>
@@ -19976,7 +19727,7 @@
         <v>45549.0</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>10</v>
@@ -20018,7 +19769,7 @@
         <v>45549.0</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>10</v>
@@ -20060,7 +19811,7 @@
         <v>45549.0</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D387" s="5" t="s">
         <v>15</v>
@@ -20102,7 +19853,7 @@
         <v>45549.0</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>10</v>
@@ -20144,7 +19895,7 @@
         <v>45549.0</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D389" s="5" t="s">
         <v>15</v>
@@ -20186,7 +19937,7 @@
         <v>45549.0</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D390" s="5" t="s">
         <v>10</v>
@@ -20228,7 +19979,7 @@
         <v>45549.0</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D391" s="5" t="s">
         <v>15</v>
@@ -20270,7 +20021,7 @@
         <v>45549.0</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D392" s="5" t="s">
         <v>15</v>
@@ -20312,7 +20063,7 @@
         <v>45549.0</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D393" s="5" t="s">
         <v>10</v>
@@ -20354,7 +20105,7 @@
         <v>45556.0</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>10</v>
@@ -20396,7 +20147,7 @@
         <v>45556.0</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D395" s="5" t="s">
         <v>10</v>
@@ -20438,7 +20189,7 @@
         <v>45556.0</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D396" s="5" t="s">
         <v>15</v>
@@ -20480,7 +20231,7 @@
         <v>45556.0</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D397" s="5" t="s">
         <v>15</v>
@@ -20489,7 +20240,7 @@
         <v>0</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G397" s="7">
         <v>7.0</v>
@@ -20522,7 +20273,7 @@
         <v>45556.0</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D398" s="5" t="s">
         <v>10</v>
@@ -20564,7 +20315,7 @@
         <v>45556.0</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D399" s="5" t="s">
         <v>10</v>
@@ -20606,7 +20357,7 @@
         <v>45556.0</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D400" s="5" t="s">
         <v>10</v>
@@ -20648,7 +20399,7 @@
         <v>45556.0</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D401" s="5" t="s">
         <v>15</v>
@@ -20690,7 +20441,7 @@
         <v>45556.0</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>10</v>
@@ -20732,7 +20483,7 @@
         <v>45556.0</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D403" s="5" t="s">
         <v>10</v>
@@ -20741,7 +20492,7 @@
         <v>0</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G403" s="7">
         <v>5.25</v>
@@ -20774,7 +20525,7 @@
         <v>45556.0</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>10</v>
@@ -20816,7 +20567,7 @@
         <v>45556.0</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>10</v>
@@ -20858,7 +20609,7 @@
         <v>45556.0</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>10</v>
@@ -20900,7 +20651,7 @@
         <v>45556.0</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>10</v>
@@ -20942,7 +20693,7 @@
         <v>45556.0</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D408" s="5" t="s">
         <v>10</v>
@@ -20984,7 +20735,7 @@
         <v>45556.0</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D409" s="5" t="s">
         <v>10</v>
@@ -21026,7 +20777,7 @@
         <v>45556.0</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D410" s="5" t="s">
         <v>10</v>
@@ -21068,7 +20819,7 @@
         <v>45556.0</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>15</v>
@@ -21110,7 +20861,7 @@
         <v>45556.0</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>10</v>
@@ -21152,7 +20903,7 @@
         <v>45556.0</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>10</v>
@@ -21194,7 +20945,7 @@
         <v>45556.0</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D414" s="5" t="s">
         <v>10</v>
@@ -21236,7 +20987,7 @@
         <v>45556.0</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>10</v>
@@ -21278,7 +21029,7 @@
         <v>45556.0</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D416" s="5" t="s">
         <v>15</v>
@@ -21320,7 +21071,7 @@
         <v>45556.0</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>15</v>
@@ -21362,7 +21113,7 @@
         <v>45556.0</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>10</v>
@@ -21404,7 +21155,7 @@
         <v>45556.0</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>10</v>
@@ -21446,7 +21197,7 @@
         <v>45556.0</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>15</v>
@@ -21488,7 +21239,7 @@
         <v>45556.0</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>15</v>
@@ -21530,7 +21281,7 @@
         <v>45556.0</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>10</v>
@@ -21572,7 +21323,7 @@
         <v>45556.0</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>10</v>
@@ -21614,7 +21365,7 @@
         <v>45556.0</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>10</v>
@@ -21656,7 +21407,7 @@
         <v>45556.0</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D425" s="5" t="s">
         <v>15</v>
@@ -21698,7 +21449,7 @@
         <v>45556.0</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>10</v>
@@ -21740,7 +21491,7 @@
         <v>45556.0</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>10</v>
@@ -21782,7 +21533,7 @@
         <v>45556.0</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>15</v>
@@ -21824,7 +21575,7 @@
         <v>45556.0</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>10</v>
@@ -21866,7 +21617,7 @@
         <v>45556.0</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>15</v>
@@ -21908,7 +21659,7 @@
         <v>45556.0</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D431" s="5" t="s">
         <v>15</v>
@@ -21950,7 +21701,7 @@
         <v>45556.0</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D432" s="5" t="s">
         <v>10</v>
@@ -21992,7 +21743,7 @@
         <v>45556.0</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>15</v>
@@ -22034,7 +21785,7 @@
         <v>45556.0</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>10</v>
@@ -22076,7 +21827,7 @@
         <v>45556.0</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D435" s="5" t="s">
         <v>10</v>
@@ -22118,7 +21869,7 @@
         <v>45556.0</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>10</v>
@@ -22160,7 +21911,7 @@
         <v>45556.0</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>10</v>
@@ -22202,7 +21953,7 @@
         <v>45556.0</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D438" s="5" t="s">
         <v>15</v>
@@ -22244,7 +21995,7 @@
         <v>45556.0</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>10</v>
@@ -22286,7 +22037,7 @@
         <v>45556.0</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>10</v>
@@ -22328,7 +22079,7 @@
         <v>45556.0</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D441" s="5" t="s">
         <v>10</v>
@@ -22370,7 +22121,7 @@
         <v>45556.0</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D442" s="5" t="s">
         <v>10</v>
@@ -22412,7 +22163,7 @@
         <v>45556.0</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D443" s="5" t="s">
         <v>15</v>
@@ -22454,7 +22205,7 @@
         <v>45556.0</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D444" s="5" t="s">
         <v>10</v>
@@ -22496,7 +22247,7 @@
         <v>45556.0</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>10</v>
@@ -22538,7 +22289,7 @@
         <v>45556.0</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D446" s="5" t="s">
         <v>10</v>
@@ -22580,7 +22331,7 @@
         <v>45556.0</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D447" s="5" t="s">
         <v>10</v>
@@ -22622,7 +22373,7 @@
         <v>45556.0</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D448" s="5" t="s">
         <v>10</v>
@@ -22664,7 +22415,7 @@
         <v>45556.0</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D449" s="5" t="s">
         <v>10</v>
@@ -22706,7 +22457,7 @@
         <v>45556.0</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D450" s="5" t="s">
         <v>10</v>
@@ -22748,7 +22499,7 @@
         <v>45556.0</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>10</v>
@@ -22790,7 +22541,7 @@
         <v>45556.0</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>10</v>
@@ -22832,7 +22583,7 @@
         <v>45556.0</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D453" s="5" t="s">
         <v>10</v>
@@ -22874,7 +22625,7 @@
         <v>45556.0</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D454" s="5" t="s">
         <v>10</v>
@@ -22916,7 +22667,7 @@
         <v>45556.0</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D455" s="5" t="s">
         <v>10</v>
@@ -22958,7 +22709,7 @@
         <v>45556.0</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D456" s="5" t="s">
         <v>10</v>
@@ -23000,7 +22751,7 @@
         <v>45556.0</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D457" s="5" t="s">
         <v>15</v>
@@ -23042,7 +22793,7 @@
         <v>45556.0</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D458" s="5" t="s">
         <v>10</v>
@@ -23084,7 +22835,7 @@
         <v>45556.0</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D459" s="5" t="s">
         <v>15</v>
@@ -23093,7 +22844,7 @@
         <v>0</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G459" s="7">
         <v>8.0</v>
@@ -23126,7 +22877,7 @@
         <v>45556.0</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D460" s="5" t="s">
         <v>10</v>
@@ -23168,7 +22919,7 @@
         <v>45556.0</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D461" s="5" t="s">
         <v>15</v>
@@ -23210,7 +22961,7 @@
         <v>45556.0</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D462" s="5" t="s">
         <v>10</v>
@@ -23252,7 +23003,7 @@
         <v>45556.0</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D463" s="5" t="s">
         <v>10</v>
@@ -23294,7 +23045,7 @@
         <v>45556.0</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D464" s="5" t="s">
         <v>10</v>
@@ -23336,7 +23087,7 @@
         <v>45556.0</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D465" s="5" t="s">
         <v>10</v>
@@ -23345,7 +23096,7 @@
         <v>1</v>
       </c>
       <c r="F465" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G465" s="7">
         <v>5.25</v>
@@ -23378,7 +23129,7 @@
         <v>45556.0</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D466" s="5" t="s">
         <v>10</v>
@@ -23420,7 +23171,7 @@
         <v>45556.0</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D467" s="5" t="s">
         <v>15</v>
@@ -23462,7 +23213,7 @@
         <v>45556.0</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D468" s="5" t="s">
         <v>10</v>
@@ -23504,7 +23255,7 @@
         <v>45556.0</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D469" s="5" t="s">
         <v>10</v>
@@ -23546,7 +23297,7 @@
         <v>45556.0</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D470" s="5" t="s">
         <v>15</v>
@@ -23555,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G470" s="7">
         <v>8.0</v>
@@ -23588,7 +23339,7 @@
         <v>45556.0</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D471" s="5" t="s">
         <v>10</v>
@@ -23630,7 +23381,7 @@
         <v>45556.0</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D472" s="5" t="s">
         <v>10</v>
@@ -23672,7 +23423,7 @@
         <v>45556.0</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D473" s="5" t="s">
         <v>10</v>
@@ -23714,7 +23465,7 @@
         <v>45556.0</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D474" s="5" t="s">
         <v>10</v>
@@ -23723,13 +23474,13 @@
         <v>1</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G474" s="7">
         <v>4.0</v>
       </c>
       <c r="H474" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I474" s="8"/>
       <c r="J474" s="8"/>
@@ -23758,7 +23509,7 @@
         <v>45556.0</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D475" s="5" t="s">
         <v>10</v>
@@ -23800,7 +23551,7 @@
         <v>45556.0</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D476" s="5" t="s">
         <v>10</v>
@@ -23842,7 +23593,7 @@
         <v>45556.0</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D477" s="5" t="s">
         <v>10</v>
@@ -23884,7 +23635,7 @@
         <v>45556.0</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D478" s="5" t="s">
         <v>15</v>
@@ -23893,7 +23644,7 @@
         <v>1</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G478" s="7">
         <v>8.0</v>
@@ -23926,7 +23677,7 @@
         <v>45563.0</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D479" s="5" t="s">
         <v>10</v>
@@ -23968,7 +23719,7 @@
         <v>45563.0</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D480" s="5" t="s">
         <v>10</v>
@@ -23977,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G480" s="7">
         <v>5.25</v>
@@ -24010,7 +23761,7 @@
         <v>45563.0</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D481" s="5" t="s">
         <v>15</v>
@@ -24019,7 +23770,7 @@
         <v>0</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G481" s="7">
         <v>7.0</v>
@@ -24052,7 +23803,7 @@
         <v>45563.0</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D482" s="5" t="s">
         <v>15</v>
@@ -24061,7 +23812,7 @@
         <v>0</v>
       </c>
       <c r="F482" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G482" s="7">
         <v>8.0</v>
@@ -24094,7 +23845,7 @@
         <v>45563.0</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D483" s="5" t="s">
         <v>10</v>
@@ -24136,7 +23887,7 @@
         <v>45563.0</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D484" s="5" t="s">
         <v>10</v>
@@ -24178,7 +23929,7 @@
         <v>45563.0</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D485" s="5" t="s">
         <v>10</v>
@@ -24220,7 +23971,7 @@
         <v>45563.0</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D486" s="5" t="s">
         <v>10</v>
@@ -24262,7 +24013,7 @@
         <v>45563.0</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D487" s="5" t="s">
         <v>15</v>
@@ -24304,7 +24055,7 @@
         <v>45563.0</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D488" s="5" t="s">
         <v>10</v>
@@ -24346,7 +24097,7 @@
         <v>45563.0</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D489" s="5" t="s">
         <v>10</v>
@@ -24388,7 +24139,7 @@
         <v>45563.0</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D490" s="5" t="s">
         <v>10</v>
@@ -24430,7 +24181,7 @@
         <v>45563.0</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D491" s="5" t="s">
         <v>10</v>
@@ -24472,7 +24223,7 @@
         <v>45563.0</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D492" s="5" t="s">
         <v>10</v>
@@ -24514,7 +24265,7 @@
         <v>45563.0</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D493" s="5" t="s">
         <v>10</v>
@@ -24556,7 +24307,7 @@
         <v>45563.0</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D494" s="5" t="s">
         <v>10</v>
@@ -24598,7 +24349,7 @@
         <v>45563.0</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D495" s="5" t="s">
         <v>10</v>
@@ -24607,7 +24358,7 @@
         <v>0</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G495" s="7">
         <v>5.25</v>
@@ -24640,7 +24391,7 @@
         <v>45563.0</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D496" s="5" t="s">
         <v>10</v>
@@ -24682,7 +24433,7 @@
         <v>45563.0</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D497" s="5" t="s">
         <v>10</v>
@@ -24724,7 +24475,7 @@
         <v>45563.0</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D498" s="5" t="s">
         <v>10</v>
@@ -24766,7 +24517,7 @@
         <v>45563.0</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D499" s="5" t="s">
         <v>10</v>
@@ -24808,7 +24559,7 @@
         <v>45563.0</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D500" s="5" t="s">
         <v>10</v>
@@ -24850,7 +24601,7 @@
         <v>45563.0</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D501" s="5" t="s">
         <v>10</v>
@@ -24892,7 +24643,7 @@
         <v>45563.0</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D502" s="5" t="s">
         <v>10</v>
@@ -24934,7 +24685,7 @@
         <v>45563.0</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D503" s="5" t="s">
         <v>10</v>
@@ -24976,7 +24727,7 @@
         <v>45563.0</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D504" s="5" t="s">
         <v>10</v>
@@ -25018,7 +24769,7 @@
         <v>45563.0</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D505" s="5" t="s">
         <v>10</v>
@@ -25060,7 +24811,7 @@
         <v>45563.0</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D506" s="5" t="s">
         <v>10</v>
@@ -25102,7 +24853,7 @@
         <v>45563.0</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D507" s="5" t="s">
         <v>10</v>
@@ -25144,7 +24895,7 @@
         <v>45563.0</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D508" s="5" t="s">
         <v>10</v>
@@ -25186,7 +24937,7 @@
         <v>45563.0</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D509" s="5" t="s">
         <v>10</v>
@@ -25228,7 +24979,7 @@
         <v>45563.0</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D510" s="5" t="s">
         <v>10</v>
@@ -25270,7 +25021,7 @@
         <v>45563.0</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D511" s="5" t="s">
         <v>15</v>
@@ -25312,7 +25063,7 @@
         <v>45563.0</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D512" s="5" t="s">
         <v>10</v>
@@ -25354,7 +25105,7 @@
         <v>45563.0</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D513" s="5" t="s">
         <v>10</v>
@@ -25396,7 +25147,7 @@
         <v>45563.0</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D514" s="5" t="s">
         <v>10</v>
@@ -25438,7 +25189,7 @@
         <v>45563.0</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D515" s="5" t="s">
         <v>10</v>
@@ -25480,7 +25231,7 @@
         <v>45563.0</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D516" s="5" t="s">
         <v>10</v>
@@ -25522,7 +25273,7 @@
         <v>45563.0</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D517" s="5" t="s">
         <v>10</v>
@@ -25564,7 +25315,7 @@
         <v>45563.0</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D518" s="5" t="s">
         <v>10</v>
@@ -25606,7 +25357,7 @@
         <v>45563.0</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D519" s="5" t="s">
         <v>10</v>
@@ -25648,7 +25399,7 @@
         <v>45563.0</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D520" s="5" t="s">
         <v>10</v>
@@ -25690,7 +25441,7 @@
         <v>45563.0</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D521" s="5" t="s">
         <v>10</v>
@@ -25732,7 +25483,7 @@
         <v>45563.0</v>
       </c>
       <c r="C522" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D522" s="5" t="s">
         <v>10</v>
@@ -25774,7 +25525,7 @@
         <v>45563.0</v>
       </c>
       <c r="C523" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D523" s="5" t="s">
         <v>10</v>
@@ -25816,7 +25567,7 @@
         <v>45563.0</v>
       </c>
       <c r="C524" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D524" s="5" t="s">
         <v>10</v>
@@ -25858,7 +25609,7 @@
         <v>45563.0</v>
       </c>
       <c r="C525" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D525" s="5" t="s">
         <v>10</v>
@@ -25900,7 +25651,7 @@
         <v>45563.0</v>
       </c>
       <c r="C526" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D526" s="5" t="s">
         <v>10</v>
@@ -25942,7 +25693,7 @@
         <v>45563.0</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D527" s="5" t="s">
         <v>10</v>
@@ -25951,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="F527" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G527" s="7">
         <v>4.5</v>
@@ -25984,7 +25735,7 @@
         <v>45563.0</v>
       </c>
       <c r="C528" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D528" s="5" t="s">
         <v>10</v>
@@ -26026,7 +25777,7 @@
         <v>45563.0</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D529" s="5" t="s">
         <v>10</v>
@@ -26068,7 +25819,7 @@
         <v>45563.0</v>
       </c>
       <c r="C530" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D530" s="5" t="s">
         <v>10</v>
@@ -26077,7 +25828,7 @@
         <v>1</v>
       </c>
       <c r="F530" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G530" s="7">
         <v>4.5</v>
@@ -26110,7 +25861,7 @@
         <v>45563.0</v>
       </c>
       <c r="C531" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D531" s="5" t="s">
         <v>10</v>
@@ -26152,7 +25903,7 @@
         <v>45563.0</v>
       </c>
       <c r="C532" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D532" s="5" t="s">
         <v>10</v>
@@ -26194,7 +25945,7 @@
         <v>45563.0</v>
       </c>
       <c r="C533" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D533" s="5" t="s">
         <v>15</v>
@@ -26236,7 +25987,7 @@
         <v>45563.0</v>
       </c>
       <c r="C534" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D534" s="5" t="s">
         <v>15</v>
@@ -26278,7 +26029,7 @@
         <v>45563.0</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D535" s="5" t="s">
         <v>10</v>
@@ -26320,7 +26071,7 @@
         <v>45563.0</v>
       </c>
       <c r="C536" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D536" s="5" t="s">
         <v>10</v>
@@ -26362,7 +26113,7 @@
         <v>45563.0</v>
       </c>
       <c r="C537" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D537" s="5" t="s">
         <v>10</v>
@@ -26404,7 +26155,7 @@
         <v>45563.0</v>
       </c>
       <c r="C538" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D538" s="5" t="s">
         <v>10</v>
@@ -26446,7 +26197,7 @@
         <v>45563.0</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D539" s="5" t="s">
         <v>10</v>
@@ -26488,7 +26239,7 @@
         <v>45563.0</v>
       </c>
       <c r="C540" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D540" s="5" t="s">
         <v>15</v>
@@ -26530,7 +26281,7 @@
         <v>45563.0</v>
       </c>
       <c r="C541" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D541" s="5" t="s">
         <v>15</v>
@@ -26572,7 +26323,7 @@
         <v>45563.0</v>
       </c>
       <c r="C542" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D542" s="5" t="s">
         <v>10</v>
@@ -26614,7 +26365,7 @@
         <v>45563.0</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D543" s="5" t="s">
         <v>10</v>
@@ -26656,7 +26407,7 @@
         <v>45563.0</v>
       </c>
       <c r="C544" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D544" s="5" t="s">
         <v>10</v>
@@ -26698,7 +26449,7 @@
         <v>45563.0</v>
       </c>
       <c r="C545" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D545" s="5" t="s">
         <v>10</v>
@@ -26740,7 +26491,7 @@
         <v>45563.0</v>
       </c>
       <c r="C546" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D546" s="5" t="s">
         <v>10</v>
@@ -26782,7 +26533,7 @@
         <v>45563.0</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D547" s="5" t="s">
         <v>10</v>
@@ -26824,7 +26575,7 @@
         <v>45563.0</v>
       </c>
       <c r="C548" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D548" s="5" t="s">
         <v>10</v>
@@ -26866,7 +26617,7 @@
         <v>45563.0</v>
       </c>
       <c r="C549" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D549" s="5" t="s">
         <v>10</v>
@@ -26908,7 +26659,7 @@
         <v>45563.0</v>
       </c>
       <c r="C550" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D550" s="5" t="s">
         <v>10</v>
@@ -26950,7 +26701,7 @@
         <v>45563.0</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D551" s="5" t="s">
         <v>10</v>
@@ -26992,7 +26743,7 @@
         <v>45563.0</v>
       </c>
       <c r="C552" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D552" s="5" t="s">
         <v>15</v>
@@ -27034,7 +26785,7 @@
         <v>45563.0</v>
       </c>
       <c r="C553" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D553" s="5" t="s">
         <v>10</v>
@@ -27076,7 +26827,7 @@
         <v>45563.0</v>
       </c>
       <c r="C554" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D554" s="5" t="s">
         <v>15</v>
@@ -27118,7 +26869,7 @@
         <v>45563.0</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D555" s="5" t="s">
         <v>10</v>
@@ -27160,7 +26911,7 @@
         <v>45563.0</v>
       </c>
       <c r="C556" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D556" s="5" t="s">
         <v>10</v>
@@ -27202,7 +26953,7 @@
         <v>45563.0</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D557" s="5" t="s">
         <v>10</v>
@@ -27244,7 +26995,7 @@
         <v>45563.0</v>
       </c>
       <c r="C558" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D558" s="5" t="s">
         <v>10</v>
@@ -27286,7 +27037,7 @@
         <v>45563.0</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D559" s="5" t="s">
         <v>10</v>
@@ -27328,7 +27079,7 @@
         <v>45563.0</v>
       </c>
       <c r="C560" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D560" s="5" t="s">
         <v>10</v>
@@ -27370,7 +27121,7 @@
         <v>45563.0</v>
       </c>
       <c r="C561" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D561" s="5" t="s">
         <v>15</v>
@@ -27412,7 +27163,7 @@
         <v>45563.0</v>
       </c>
       <c r="C562" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D562" s="5" t="s">
         <v>10</v>
@@ -27454,7 +27205,7 @@
         <v>45563.0</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D563" s="5" t="s">
         <v>10</v>
@@ -27496,7 +27247,7 @@
         <v>45563.0</v>
       </c>
       <c r="C564" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D564" s="5" t="s">
         <v>15</v>
@@ -39729,6 +39480,11 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="D1" s="19" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="20" t="s">
         <v>38</v>
       </c>
@@ -39736,65 +39492,60 @@
     <row r="2">
       <c r="G2" s="21">
         <f t="shared" ref="G2:G5" si="1">E2+B2</f>
-        <v>459.75</v>
+        <v>385.75</v>
       </c>
     </row>
     <row r="3">
       <c r="G3" s="21">
         <f t="shared" si="1"/>
-        <v>512</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4">
       <c r="G4" s="21">
         <f t="shared" si="1"/>
-        <v>495.75</v>
+        <v>453.75</v>
       </c>
     </row>
     <row r="5">
       <c r="G5" s="21">
         <f t="shared" si="1"/>
-        <v>496.5</v>
+        <v>426.25</v>
       </c>
     </row>
     <row r="6">
       <c r="G6" s="21">
         <f>AVERAGE(G2:G5)</f>
-        <v>491</v>
+        <v>430.1875</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9"/>
-    <row r="10">
-      <c r="G10" s="19">
-        <f t="shared" ref="G10:G13" si="2">SUM(E10,B10)</f>
-        <v>91</v>
-      </c>
-    </row>
+    <row r="10"/>
     <row r="11">
       <c r="G11" s="19">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="G12" s="19">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="G13" s="19">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="G14" s="19">
         <f>AVERAGE(G10:G13)</f>
-        <v>95.75</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="17"/>
@@ -39804,7 +39555,7 @@
     <row r="21"/>
     <row r="22"/>
   </sheetData>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -39840,19 +39591,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>6</v>
@@ -39893,16 +39644,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="7">
@@ -39944,13 +39695,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -39993,16 +39744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="7">
@@ -40044,13 +39795,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -40093,16 +39844,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="7">
@@ -40144,13 +39895,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -40193,10 +39944,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -40240,13 +39991,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -40289,13 +40040,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -40338,16 +40089,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="7">
@@ -40389,13 +40140,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -40438,13 +40189,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -40487,19 +40238,19 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7">
         <v>7.5</v>
@@ -40540,16 +40291,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="7">
@@ -40591,13 +40342,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -40640,16 +40391,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="7">
@@ -40691,16 +40442,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="7">
@@ -40733,7 +40484,7 @@
         <v>45528.0</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>10</v>
@@ -40742,16 +40493,16 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="7">
@@ -40784,7 +40535,7 @@
         <v>45528.0</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>15</v>
@@ -40793,16 +40544,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="7">
@@ -40835,7 +40586,7 @@
         <v>45528.0</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>10</v>
@@ -40844,10 +40595,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -40882,7 +40633,7 @@
         <v>45528.0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>15</v>
@@ -40891,13 +40642,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -40931,7 +40682,7 @@
         <v>45528.0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>10</v>
@@ -40940,13 +40691,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -40980,7 +40731,7 @@
         <v>45528.0</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>15</v>
@@ -40989,19 +40740,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="J24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" s="7">
         <v>8.0</v>
@@ -41033,7 +40784,7 @@
         <v>45528.0</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>10</v>
@@ -41042,16 +40793,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="7">
@@ -41084,7 +40835,7 @@
         <v>45528.0</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>15</v>
@@ -41093,16 +40844,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="7">
@@ -41135,7 +40886,7 @@
         <v>45528.0</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>10</v>
@@ -41144,13 +40895,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
@@ -41184,7 +40935,7 @@
         <v>45528.0</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -41193,16 +40944,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="7">
@@ -41235,7 +40986,7 @@
         <v>45528.0</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>10</v>
@@ -41244,10 +40995,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -41282,7 +41033,7 @@
         <v>45528.0</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>10</v>
@@ -41291,10 +41042,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -41329,7 +41080,7 @@
         <v>45528.0</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>10</v>
@@ -41338,10 +41089,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -41376,7 +41127,7 @@
         <v>45528.0</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>10</v>
@@ -41385,10 +41136,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -41423,7 +41174,7 @@
         <v>45528.0</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>15</v>
@@ -41432,16 +41183,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="7">
@@ -41483,16 +41234,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="7">
@@ -41525,7 +41276,7 @@
         <v>45542.0</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>10</v>
@@ -41534,16 +41285,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="H35" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="7">
@@ -41576,7 +41327,7 @@
         <v>45542.0</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>10</v>
@@ -41585,13 +41336,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -41625,7 +41376,7 @@
         <v>45542.0</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>10</v>
@@ -41634,13 +41385,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
@@ -41674,7 +41425,7 @@
         <v>45542.0</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>15</v>
@@ -41683,13 +41434,13 @@
         <v>1</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -41723,7 +41474,7 @@
         <v>45542.0</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>10</v>
@@ -41732,13 +41483,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
@@ -41772,7 +41523,7 @@
         <v>45542.0</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>10</v>
@@ -41781,10 +41532,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -41819,7 +41570,7 @@
         <v>45542.0</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>10</v>
@@ -41828,10 +41579,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
@@ -41866,7 +41617,7 @@
         <v>45542.0</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>15</v>
@@ -41875,10 +41626,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -41913,7 +41664,7 @@
         <v>45542.0</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>10</v>
@@ -41922,10 +41673,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
@@ -41960,7 +41711,7 @@
         <v>45542.0</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>10</v>
@@ -41969,16 +41720,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="J44" s="17"/>
       <c r="K44" s="7">
@@ -42011,7 +41762,7 @@
         <v>45542.0</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>10</v>
@@ -42020,10 +41771,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -42058,7 +41809,7 @@
         <v>45542.0</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>15</v>
@@ -42067,7 +41818,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -42103,7 +41854,7 @@
         <v>45542.0</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>10</v>
@@ -42112,13 +41863,13 @@
         <v>1</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -42152,7 +41903,7 @@
         <v>45542.0</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>15</v>
@@ -42161,7 +41912,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -42197,7 +41948,7 @@
         <v>45549.0</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>10</v>
@@ -42206,16 +41957,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="I49" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49" s="17"/>
       <c r="K49" s="7">
@@ -42248,7 +41999,7 @@
         <v>45549.0</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>10</v>
@@ -42257,19 +42008,19 @@
         <v>1</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K50" s="7">
         <v>5.25</v>
@@ -42301,7 +42052,7 @@
         <v>45549.0</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>10</v>
@@ -42310,7 +42061,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -42346,7 +42097,7 @@
         <v>45549.0</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>10</v>
@@ -42355,7 +42106,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -42391,7 +42142,7 @@
         <v>45549.0</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>10</v>
@@ -42400,13 +42151,13 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
@@ -42440,7 +42191,7 @@
         <v>45549.0</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>15</v>
@@ -42449,13 +42200,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -42489,7 +42240,7 @@
         <v>45549.0</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>15</v>
@@ -42498,13 +42249,13 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="H55" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
@@ -42538,7 +42289,7 @@
         <v>45549.0</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>15</v>
@@ -42547,16 +42298,16 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="7">
@@ -42589,7 +42340,7 @@
         <v>45549.0</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>10</v>
@@ -42598,16 +42349,16 @@
         <v>0</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J57" s="17"/>
       <c r="K57" s="7">
@@ -42640,7 +42391,7 @@
         <v>45549.0</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>15</v>
@@ -42649,13 +42400,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -42689,7 +42440,7 @@
         <v>45549.0</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>10</v>
@@ -42698,16 +42449,16 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="J59" s="17"/>
       <c r="K59" s="7">
@@ -42740,7 +42491,7 @@
         <v>45549.0</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>10</v>
@@ -42749,7 +42500,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -42785,7 +42536,7 @@
         <v>45549.0</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>15</v>
@@ -42794,13 +42545,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
@@ -42834,7 +42585,7 @@
         <v>45556.0</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>10</v>
@@ -42843,13 +42594,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -42883,7 +42634,7 @@
         <v>45556.0</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>10</v>
@@ -42892,10 +42643,10 @@
         <v>0</v>
       </c>
       <c r="F63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
@@ -42930,7 +42681,7 @@
         <v>45556.0</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>10</v>
@@ -42939,13 +42690,13 @@
         <v>1</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -42979,7 +42730,7 @@
         <v>45556.0</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>10</v>
@@ -42988,10 +42739,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
@@ -43026,7 +42777,7 @@
         <v>45556.0</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>15</v>
@@ -43035,13 +42786,13 @@
         <v>1</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -43075,7 +42826,7 @@
         <v>45556.0</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>10</v>
@@ -43084,16 +42835,16 @@
         <v>1</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J67" s="17"/>
       <c r="K67" s="7">
@@ -43126,7 +42877,7 @@
         <v>45556.0</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>10</v>
@@ -43135,16 +42886,16 @@
         <v>1</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J68" s="17"/>
       <c r="K68" s="7">
@@ -43177,7 +42928,7 @@
         <v>45556.0</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>15</v>
@@ -43186,16 +42937,16 @@
         <v>0</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J69" s="17"/>
       <c r="K69" s="7">
@@ -43228,7 +42979,7 @@
         <v>45556.0</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>10</v>
@@ -43237,16 +42988,16 @@
         <v>1</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H70" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="I70" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="7">
@@ -43279,7 +43030,7 @@
         <v>45563.0</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>10</v>
@@ -43288,13 +43039,13 @@
         <v>0</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
@@ -43328,7 +43079,7 @@
         <v>45563.0</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>10</v>
@@ -43337,13 +43088,13 @@
         <v>0</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -43377,7 +43128,7 @@
         <v>45563.0</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>10</v>
@@ -43386,13 +43137,13 @@
         <v>0</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -43426,7 +43177,7 @@
         <v>45563.0</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>10</v>
@@ -43435,13 +43186,13 @@
         <v>0</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
@@ -43475,7 +43226,7 @@
         <v>45563.0</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>10</v>
@@ -43484,16 +43235,16 @@
         <v>0</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J75" s="17"/>
       <c r="K75" s="7">
@@ -43526,7 +43277,7 @@
         <v>45563.0</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>15</v>
@@ -43535,16 +43286,16 @@
         <v>1</v>
       </c>
       <c r="F76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G76" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="H76" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J76" s="17"/>
       <c r="K76" s="7">
@@ -43577,7 +43328,7 @@
         <v>45563.0</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>10</v>
@@ -43586,13 +43337,13 @@
         <v>0</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G77" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
@@ -43626,7 +43377,7 @@
         <v>45563.0</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>10</v>
@@ -43635,13 +43386,13 @@
         <v>0</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
@@ -43675,7 +43426,7 @@
         <v>45563.0</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>15</v>
@@ -43684,16 +43435,16 @@
         <v>0</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J79" s="17"/>
       <c r="K79" s="7">
@@ -43726,7 +43477,7 @@
         <v>45563.0</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>10</v>
@@ -43735,16 +43486,16 @@
         <v>0</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J80" s="17"/>
       <c r="K80" s="7">
@@ -43777,7 +43528,7 @@
         <v>45563.0</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>10</v>
@@ -43786,19 +43537,19 @@
         <v>0</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K81" s="7">
         <v>5.25</v>
@@ -43830,7 +43581,7 @@
         <v>45563.0</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>10</v>
@@ -43839,16 +43590,16 @@
         <v>0</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H82" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="I82" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J82" s="17"/>
       <c r="K82" s="7">
@@ -43881,7 +43632,7 @@
         <v>45563.0</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>10</v>
@@ -43890,13 +43641,13 @@
         <v>1</v>
       </c>
       <c r="F83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="H83" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
@@ -43930,7 +43681,7 @@
         <v>45563.0</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>10</v>
@@ -43939,10 +43690,10 @@
         <v>0</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
@@ -43977,7 +43728,7 @@
         <v>45563.0</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>10</v>
@@ -43986,10 +43737,10 @@
         <v>0</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
